--- a/Data/Transitions/19031928Translation.xlsx
+++ b/Data/Transitions/19031928Translation.xlsx
@@ -28,22 +28,22 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
-  </si>
-  <si>
-    <t>{3.0: 0.7129629629629629}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
+  </si>
+  <si>
+    <t>{3.0: 0.7069508804448563}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -106,7 +106,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 90.0: 0.01565348048070135, 246.0: 0.014071768518479359, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030857033245445683}</t>
+    <t>{46.0: 1.0, 90.0: 0.01565348048070135, 246.0: 0.014061900444306514, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030919626462848826}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -142,10 +142,10 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9914243102162565}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9914200447649838}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -166,16 +166,16 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286, 757.0: 0.13017306245297217}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.7850698306760598}</t>
+    <t>{764.0: 0.1490527567751253, 757.0: 0.16313059877416314}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.7830859423724585}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.39748493443127403}</t>
+    <t>{86.0: 0.39561049492763845}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{90.0: 0.9509332737230356}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.0004825682791784487}</t>
+    <t>{91.0: 1.0, 92.0: 0.0004535688708522321}</t>
   </si>
   <si>
     <t>{92.0: 0.9335071707953064}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.7130271104329559}</t>
+    <t>{98.0: 0.7121995276675722}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,16 +244,16 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 0.012229296127601213}</t>
+    <t>{92.0: 0.01225829553592743}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.3809666079163851, 86.0: 0.167627732332037}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
+    <t>{543.0: 0.3807887096637884, 86.0: 0.16763897270837524}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 0.7010364992187316, 762.0: 0.7010364992187316}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9236299600867051, 764.0: 0.02364448224537529, 733.0: 0.0815552394499763}</t>
+    <t>{147.0: 0.9177237229897864, 764.0: 0.023617364709880215, 733.0: 0.07612303606992697}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -301,7 +301,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,7 +310,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -331,13 +331,13 @@
     <t>{171.0: 0.9447334756674233}</t>
   </si>
   <si>
-    <t>{172.0: 0.9428147659854977}</t>
+    <t>{172.0: 0.9421280853902602}</t>
   </si>
   <si>
     <t>{173.0: 0.8485467756584922}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 534.0: 0.04851715745215711}</t>
+    <t>{174.0: 1.0, 534.0: 0.046148460782555245}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,25 +349,25 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.031122687395578948}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.925063318636872, 410.0: 0.024561824090018856}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.028080106910640466}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9351732379460341, 410.0: 0.02435244277531649}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6477801374923218}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.16187171408892798}</t>
-  </si>
-  <si>
-    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.047477041276882896}</t>
+    <t>{182.0: 0.6467200725568916}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.16235887418898493}</t>
+  </si>
+  <si>
+    <t>{184.0: 1.0, 171.0: 0.05526652433257668, 593.0: 0.04736108044332734}</t>
   </si>
   <si>
     <t>{185.0: 0.9243525670149931}</t>
@@ -379,13 +379,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.7114100886721801}</t>
+    <t>{204.0: 0.7113991598744435}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 785.0: 0.12581933996307887}</t>
+    <t>{206.0: 0.8527388535031847, 785.0: 0.1295359842365321}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -412,13 +412,13 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.24406536889838756}</t>
+    <t>{897.0: 0.24357767221532678}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
   </si>
   <si>
-    <t>{218.0: 1.0, 409.0: 0.11470472698703679}</t>
+    <t>{218.0: 1.0, 409.0: 0.11496062992125984}</t>
   </si>
   <si>
     <t>{480.0: 0.36969409532843256}</t>
@@ -439,7 +439,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.6596534653465347}</t>
+    <t>{227.0: 0.6191135734072022}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6436855156999559}</t>
+    <t>{246.0: 0.6439478202716789}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -496,13 +499,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.8066747612911751}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.8066389006587737}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -541,13 +544,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.691672685986975}</t>
+    <t>{264.0: 0.6906005085025639}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
   </si>
   <si>
-    <t>{834.0: 0.04678007418275025, 887.0: 0.17772841321070795}</t>
+    <t>{834.0: 0.04740869776067081, 887.0: 0.17890336920659178}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -568,16 +571,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
-  </si>
-  <si>
-    <t>{277.0: 0.6992746637967333, 180.0: 0.013996985868565445}</t>
-  </si>
-  <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977, 757.0: 0.025527821769220777}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
+  </si>
+  <si>
+    <t>{277.0: 0.6992746637967333, 180.0: 0.02295240336741064}</t>
+  </si>
+  <si>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592, 757.0: 0.029445404857946115}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.19034814841875028}</t>
+    <t>{182.0: 0.19092105325412345}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -601,7 +604,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.15746955604131482}</t>
+    <t>{909.0: 0.1599143866049324}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -610,13 +613,13 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -637,7 +640,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.5243254148187214}</t>
+    <t>{298.0: 0.5212564069352182}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -652,16 +655,16 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.7922672313682628}</t>
-  </si>
-  <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{305.0: 0.7921536463673023}</t>
+  </si>
+  <si>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -670,13 +673,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.01907822518424724}</t>
+    <t>{309.0: 1.0, 204.0: 0.019089153981983964}</t>
   </si>
   <si>
     <t>{310.0: 1.0, 887.0: 0.029663050782374963}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -700,19 +703,16 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.28697288956704414}</t>
+    <t>{98.0: 0.28780047233242784}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 0.9842657342657343}</t>
@@ -724,7 +724,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.942213972290207}</t>
+    <t>{404.0: 0.9421964542058993}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -739,10 +739,10 @@
     <t>{408.0: 1.0}</t>
   </si>
   <si>
-    <t>{409.0: 0.8852952730129632}</t>
-  </si>
-  <si>
-    <t>{410.0: 0.6920026961014009}</t>
+    <t>{409.0: 0.8850393700787401}</t>
+  </si>
+  <si>
+    <t>{410.0: 0.6922120774161032}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -763,7 +763,7 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8830488750969744}</t>
+    <t>{418.0: 0.8827532568539763}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
@@ -775,7 +775,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -799,10 +799,10 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -811,7 +811,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -823,19 +823,19 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 1.0, 291.0: 0.06846646256610076}</t>
+    <t>{443.0: 1.0, 291.0: 0.06869589500139626}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.841880929465145, 595.0: 0.07939785344877477}</t>
+    <t>{476.0: 0.8402999583391195, 595.0: 0.07876903794877253}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{480.0: 0.6303059046715674}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -865,7 +865,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.5247579841756855, 837.0: 0.0070212990658312146}</t>
+    <t>{486.0: 0.5225689544852539, 837.0: 0.007175279452255245}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -880,25 +880,25 @@
     <t>{490.0: 1.0}</t>
   </si>
   <si>
-    <t>{491.0: 1.0, 492.0: 0.011442530213422474}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9885574697865775}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{491.0: 1.0, 492.0: 0.011577235772357723}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9884227642276423}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.7430485921510396}</t>
+    <t>{497.0: 0.7419683051052892}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -907,13 +907,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.21443956244325174, 180.0: 0.004292315567223292}</t>
+    <t>{277.0: 0.21357773180695558, 180.0: 0.007010295817259658}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.1870200326304875}</t>
+    <t>{534.0: 0.17598260269811342}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -928,7 +928,7 @@
     <t>{249.0: 0.035140616245606826, 702.0: 0.04400142825868001}</t>
   </si>
   <si>
-    <t>{507.0: 0.7996186117467582}</t>
+    <t>{507.0: 0.7984965866380302}</t>
   </si>
   <si>
     <t>{529.0: 1.0}</t>
@@ -946,13 +946,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.44192687246253753}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{534.0: 0.4667568493776422}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -961,7 +961,7 @@
     <t>{538.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.0698397178475399}</t>
+    <t>{173.0: 0.1514532243415077, 185.0: 0.07564743298500681, 404.0: 0.04851045232719062, 930.0: 0.07985944737262418}</t>
   </si>
   <si>
     <t>{540.0: 1.0}</t>
@@ -970,7 +970,7 @@
     <t>{542.0: 0.7394957983193278}</t>
   </si>
   <si>
-    <t>{543.0: 0.619033392083615}</t>
+    <t>{543.0: 0.6192112903362116}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 0.6410523032130602, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 0.6410523032130602, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
@@ -1024,10 +1024,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.6294255744382644}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.628479805291993}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1039,7 +1039,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1048,7 +1048,7 @@
     <t>{587.0: 1.0}</t>
   </si>
   <si>
-    <t>{81.0: 0.21493016932394018, 172.0: 0.05718523401450231, 507.0: 0.2003813882532418}</t>
+    <t>{81.0: 0.21691405762754148, 172.0: 0.057871914609739825, 507.0: 0.20150341336196978}</t>
   </si>
   <si>
     <t>{589.0: 1.0}</t>
@@ -1063,13 +1063,13 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.7044783923693807}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9056899251783539}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{593.0: 0.7047938629038607}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9062608094085092}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1078,7 +1078,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1093,7 +1093,7 @@
     <t>{603.0: 0.518114955053119, 617.0: 0.09849118574152624}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1117,16 +1117,16 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
-  </si>
-  <si>
-    <t>{305.0: 0.20773276863173715, 615.0: 0.0059104663291704935, 698.0: 0.0025583125699411907, 832.0: 0.1194793119479312}</t>
-  </si>
-  <si>
-    <t>{615.0: 0.8527489476030984}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
+  </si>
+  <si>
+    <t>{305.0: 0.20784635363269768, 615.0: 0.005625267681682604, 698.0: 0.0025780586288422277, 832.0: 0.12134088762983947}</t>
+  </si>
+  <si>
+    <t>{615.0: 0.853009340952926}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1135,7 +1135,7 @@
     <t>{617.0: 0.8099047619047619}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1177,7 +1177,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1201,13 +1201,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.02529103651019675, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.025307789715560587, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1216,10 +1216,10 @@
     <t>{685.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.5239710306890218}</t>
-  </si>
-  <si>
-    <t>{687.0: 1.0, 534.0: 0.04730317529360591}</t>
+    <t>{686.0: 0.5242522882871485}</t>
+  </si>
+  <si>
+    <t>{687.0: 1.0, 534.0: 0.04461080914777971}</t>
   </si>
   <si>
     <t>{688.0: 1.0}</t>
@@ -1240,10 +1240,10 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10551084435554689, 857.0: 0.0961021239620225}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10678805148986302, 857.0: 0.09616585708363125}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.972150650919862}</t>
+    <t>{698.0: 0.9721141516555971}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1267,7 +1267,7 @@
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1276,25 +1276,25 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.2372133164273032}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.23781693947321766}</t>
   </si>
   <si>
     <t>{729.0: 0.8666726683471372}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.8584500055120714}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.8836851164054715}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 0.9184447605500237, 147.0: 0.07637003991329491}</t>
+    <t>{733.0: 0.923876963930073, 147.0: 0.08227627701021362}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1318,7 +1318,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.001339605819551074, 246.0: 0.0046834341753414985}</t>
+    <t>{741.0: 0.9931837546151662, 90.0: 0.033413245796262994, 789.0: 0.0013426240374213674, 246.0: 0.004680023247519948}</t>
   </si>
   <si>
     <t>{758.0: 0.11983160427003459}</t>
@@ -1339,7 +1339,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 595.0: 0.014912221372871303, 534.0: 0.051506884489296745}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 595.0: 0.014970152642718296, 534.0: 0.054145179905543954}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.13336110913443233}</t>
+    <t>{580.0: 0.1337032552347893}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.36222635520957475}</t>
+    <t>{757.0: 0.2513707719978347}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1372,10 +1372,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.05816302294063936}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9418369770593606}</t>
+    <t>{760.0: 1.0, 761.0: 0.05807537591257333}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9419246240874267}</t>
   </si>
   <si>
     <t>{141.0: 0.0615630433760985, 762.0: 0.0615630433760985}</t>
@@ -1384,7 +1384,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1393,7 +1393,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1408,10 +1408,10 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
-  </si>
-  <si>
-    <t>{773.0: 1.0, 757.0: 0.48207276056823234}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
+  </si>
+  <si>
+    <t>{773.0: 1.0, 757.0: 0.556053224370056}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1435,7 +1435,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7409374650734597}</t>
+    <t>{782.0: 0.7360736129578894}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1450,25 +1450,25 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.05003589790342541, 180.0: 0.001001540299018768}</t>
+    <t>{277.0: 0.05089772853972156, 180.0: 0.0016706242288055213}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9955746908559042, 246.0: 0.05497736487796505}</t>
+    <t>{789.0: 0.9955654133162938, 246.0: 0.05493704087155117}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
   </si>
   <si>
-    <t>{832.0: 0.8805206880520688}</t>
+    <t>{832.0: 0.8786591123701605}</t>
   </si>
   <si>
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1477,10 +1477,10 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1495,10 +1495,10 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.30832731401302516}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.34034653465346537, 686.0: 0.016503024588630608}</t>
+    <t>{264.0: 0.309399491497436}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.3808864265927978, 686.0: 0.016444551075506544}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1510,16 +1510,16 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 0.0245231522327416, 277.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{180.0: 0.0051133317298495155, 277.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9038978760379776}</t>
+    <t>{857.0: 0.9038341429163687}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1564,7 +1564,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.7926085360069172}</t>
+    <t>{887.0: 0.7914335800110333}</t>
   </si>
   <si>
     <t>{888.0: 0.7154046997389034}</t>
@@ -1591,10 +1591,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7138830138447109}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7146079196533135}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1603,10 +1603,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.09603434816167061, 404.0: 0.009275575382602387}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.43662618654252366}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.09529245920638413, 404.0: 0.009293093466910127}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.43416282576980525}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1624,7 +1624,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.22372587767191515}</t>
+    <t>{534.0: 0.21235609808836542}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1633,16 +1633,16 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.06491606204672862}</t>
-  </si>
-  <si>
-    <t>{922.0: 0.9179694492414264}</t>
+    <t>{921.0: 1.0, 686.0: 0.06468367522224322}</t>
+  </si>
+  <si>
+    <t>{922.0: 0.9192088257463509}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.28703703703703703, 418.0: 0.1169511249030256, 922.0: 0.06387231470150483}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.31743624359904965}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.5166896903917397}</t>
+    <t>{3.0: 0.2930491195551437, 418.0: 0.11724674314602372, 922.0: 0.06263293819658025}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.3232180150346895}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.5016300783863021}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1678,7 +1678,7 @@
     <t>{249.0: 0.15247765896390925, 702.0: 0.1918048312516884}</t>
   </si>
   <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -1687,16 +1687,16 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.24804456635373645}</t>
-  </si>
-  <si>
-    <t>{910.0: 0.13926168166609582, 497.0: 0.024895113952272806, 731.0: 0.10743779919946725}</t>
+    <t>{593.0: 0.24784505665281187}</t>
+  </si>
+  <si>
+    <t>{910.0: 0.13778294444063413, 497.0: 0.02472433810645906, 731.0: 0.08734667214952684}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{785.0: 0.13213207501312954, 206.0: 0.1472611464968153}</t>
+    <t>{785.0: 0.1284154307396763, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1729,7 +1729,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204}</t>
+    <t>{782.0: 0.21279960670180362}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1741,19 +1741,19 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.005706963499308707, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
-  </si>
-  <si>
-    <t>{497.0: 0.23205629389668767, 910.0: 0.044216483552252, 731.0: 0.034112195288461336}</t>
+    <t>{989.0: 1.0, 249.0: 0.005742824131710109, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
+  </si>
+  <si>
+    <t>{497.0: 0.2333073567882517, 910.0: 0.04569522077771368, 731.0: 0.028968211445001647}</t>
   </si>
   <si>
     <t>{410.0: 0.2834354798085803, 729.0: 0.1333273316528628}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1786,7 +1786,7 @@
     <t>{34.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 0.8689117580383119, 90.0: 0.048244694099530534, 246.0: 0.05450710842222503, 681.0: 0.0103643216080402, 741.0: 0.006678077753603451, 789.0: 0.011294040078288893}</t>
+    <t>{46.0: 0.8689117580383119, 90.0: 0.048244694099530534, 246.0: 0.05450633945268684, 681.0: 0.0103643216080402, 741.0: 0.006678077753603451, 789.0: 0.01129480904782709}</t>
   </si>
   <si>
     <t>{834.0: 1.0}</t>
@@ -1828,13 +1828,13 @@
     <t>{543.0: 0.6716403502870428, 86.0: 0.3283596497129573}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
+    <t>{108.0: 0.9879188511511282, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909882}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.057816231805686964}</t>
   </si>
   <si>
     <t>{142.0: 1.0}</t>
@@ -1843,7 +1843,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.8973738751910919, 764.0: 0.038649094051082036, 733.0: 0.06397703075782603}</t>
+    <t>{147.0: 0.8973738751910918, 764.0: 0.03864909405108203, 733.0: 0.06397703075782603}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -1861,25 +1861,25 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 534.0: 0.47303499899021634}</t>
+    <t>{174.0: 0.529134601041196, 534.0: 0.470865398958804}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026066}</t>
+    <t>{178.0: 0.9924042536179738, 14.0: 0.007595746382026066}</t>
   </si>
   <si>
     <t>{179.0: 0.9123261843035585, 180.0: 0.0876738156964412}</t>
   </si>
   <si>
-    <t>{180.0: 0.9746846160358988, 410.0: 0.02531538396410126}</t>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.02531538396410126}</t>
   </si>
   <si>
     <t>{182.0: 1.0}</t>
   </si>
   <si>
-    <t>{184.0: 0.6302430932176811, 171.0: 0.15866130315356802, 593.0: 0.2110956036287509}</t>
+    <t>{184.0: 0.629983382178623, 171.0: 0.15877360106160043, 593.0: 0.21124301675977658}</t>
   </si>
   <si>
     <t>{185.0: 1.0}</t>
@@ -1930,7 +1930,7 @@
     <t>{264.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233084}</t>
+    <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233087}</t>
   </si>
   <si>
     <t>{686.0: 1.0}</t>
@@ -1939,10 +1939,10 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434107, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{278.0: 0.959086427672184, 767.0: 0.016295795701747166, 757.0: 0.02461777662606893}</t>
+    <t>{277.0: 0.9637501241434101, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
+    <t>{278.0: 0.9590864276721839, 767.0: 0.016295795701747166, 757.0: 0.02461777662606893}</t>
   </si>
   <si>
     <t>{909.0: 1.0}</t>
@@ -1954,7 +1954,7 @@
     <t>{291.0: 1.0}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951964}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951964}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1969,10 +1969,10 @@
     <t>{142.0: 0.2893693984406716, 909.0: 0.7106306015593284}</t>
   </si>
   <si>
-    <t>{309.0: 0.9568853898550179, 204.0: 0.043114610144982045}</t>
-  </si>
-  <si>
-    <t>{310.0: 0.8499271491015055, 887.0: 0.15007285089849443}</t>
+    <t>{309.0: 0.9568853898550178, 204.0: 0.043114610144982045}</t>
+  </si>
+  <si>
+    <t>{310.0: 0.8503631961259079, 887.0: 0.149636803874092}</t>
   </si>
   <si>
     <t>{311.0: 0.9817357775823581, 917.0: 0.018264222417641886}</t>
@@ -2011,10 +2011,10 @@
     <t>{441.0: 0.9886363636363636, 782.0: 0.011363636363636364}</t>
   </si>
   <si>
-    <t>{443.0: 0.8939655172413792, 291.0: 0.1060344827586207}</t>
-  </si>
-  <si>
-    <t>{476.0: 0.8458036984352775, 595.0: 0.15419630156472267}</t>
+    <t>{443.0: 0.8939655172413793, 291.0: 0.1060344827586207}</t>
+  </si>
+  <si>
+    <t>{476.0: 0.8459132906894102, 595.0: 0.15408670931058996}</t>
   </si>
   <si>
     <t>{481.0: 1.0}</t>
@@ -2038,22 +2038,25 @@
     <t>{497.0: 1.0}</t>
   </si>
   <si>
+    <t>{277.0: 0.9637501241434099, 180.0: 0.03624987585658953}</t>
+  </si>
+  <si>
     <t>{534.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.38879551820728286, 702.0: 0.6112044817927171}</t>
+    <t>{249.0: 0.3887955182072831, 702.0: 0.6112044817927171}</t>
   </si>
   <si>
     <t>{507.0: 1.0}</t>
   </si>
   <si>
-    <t>{535.0: 0.9934522679825392, 71.0: 0.0065477320174606194}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8182233178124714, 837.0: 0.1817766821875285}</t>
-  </si>
-  <si>
-    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885222, 404.0: 0.16654163540885222, 930.0: 0.5001250312578145}</t>
+    <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8183062602664716, 837.0: 0.18169373973352793}</t>
+  </si>
+  <si>
+    <t>{173.0: 0.16679169792448112, 185.0: 0.16654163540885225, 404.0: 0.16654163540885225, 930.0: 0.5001250312578145}</t>
   </si>
   <si>
     <t>{542.0: 1.0}</t>
@@ -2065,19 +2068,19 @@
     <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587968, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267296, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654982, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
   </si>
   <si>
-    <t>{581.0: 0.8894713337125868, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
+    <t>{581.0: 0.8894713337125869, 144.0: 0.04651916384581355, 303.0: 0.06400950244159957}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -2098,10 +2101,10 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542195, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.7620095020848973, 837.0: 0.16928820783876702, 922.0: 0.06870229007633588}</t>
+    <t>{603.0: 0.8619640387275243, 617.0: 0.1380359612724758}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{612.0: 0.9644128113879004, 613.0: 0.03558718861209965}</t>
@@ -2110,7 +2113,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.14016907553858743}</t>
+    <t>{305.0: 0.8292882465230433, 615.0: 0.01963457867466594, 698.0: 0.0109080992637033, 832.0: 0.1401690755385874}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2125,9 +2128,6 @@
     <t>{629.0: 1.0}</t>
   </si>
   <si>
-    <t>{603.0: 0.8623827909542197, 617.0: 0.13761720904578048}</t>
-  </si>
-  <si>
     <t>{636.0: 1.0}</t>
   </si>
   <si>
@@ -2137,16 +2137,16 @@
     <t>{615.0: 0.5858845244989072, 698.0: 0.12135505202398524, 751.0: 0.2927604234771076}</t>
   </si>
   <si>
-    <t>{687.0: 0.7078576225654801, 534.0: 0.29214237743451976}</t>
+    <t>{687.0: 0.7092245989304813, 534.0: 0.29077540106951866}</t>
   </si>
   <si>
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.9488141498057079, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.7258720104389738, 857.0: 0.2741279895610262}</t>
+    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.7259705854114223, 857.0: 0.2740294145885776}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2182,16 +2182,16 @@
     <t>{741.0: 0.885958315311391, 90.0: 0.09275598362042739, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.010014537231465032}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.2037440832007895, 595.0: 0.037144060913161095, 534.0: 0.19648093841642228}</t>
+    <t>{746.0: 0.9899854627685348, 691.0: 0.010014537231465032}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.2037704826754968, 595.0: 0.037117661438453804, 534.0: 0.19648093841642228}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787179, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266306, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
@@ -2203,7 +2203,7 @@
     <t>{761.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009012, 762.0: 0.057901139999098815}</t>
+    <t>{141.0: 0.9421837681943133, 762.0: 0.05781623180568697}</t>
   </si>
   <si>
     <t>{764.0: 1.0}</t>
@@ -2212,7 +2212,7 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795798, 144.0: 2.46693153835297e-06}</t>
+    <t>{772.0: 0.9882429784454607, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795787, 144.0: 2.46693153835297e-06}</t>
   </si>
   <si>
     <t>{773.0: 0.8230245634803196, 757.0: 0.17697543651968037}</t>
@@ -2224,19 +2224,19 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9637501241434108, 180.0: 0.03624987585658953}</t>
-  </si>
-  <si>
-    <t>{789.0: 0.9435422883765255, 246.0: 0.05645771162347448}</t>
+    <t>{277.0: 0.9637501241434102, 180.0: 0.03624987585658952}</t>
+  </si>
+  <si>
+    <t>{789.0: 0.94360671992941, 246.0: 0.05639328007058985}</t>
   </si>
   <si>
     <t>{832.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9689657749414814, 486.0: 0.031034225058518636}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200548}</t>
+    <t>{837.0: 0.9689657749414812, 486.0: 0.031034225058518636}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200546}</t>
   </si>
   <si>
     <t>{227.0: 0.9322033898305084, 686.0: 0.06779661016949153}</t>
@@ -2245,10 +2245,10 @@
     <t>{848.0: 0.9943369513921662, 707.0: 0.005663048607833884}</t>
   </si>
   <si>
-    <t>{180.0: 0.5597104945717732, 277.0: 0.4402895054282269}</t>
-  </si>
-  <si>
-    <t>{851.0: 0.9234303215926493, 7.0: 0.07656967840735068}</t>
+    <t>{180.0: 0.1391509433962264, 277.0: 0.8608490566037735}</t>
+  </si>
+  <si>
+    <t>{851.0: 0.9234303215926492, 7.0: 0.07656967840735068}</t>
   </si>
   <si>
     <t>{854.0: 0.8732737611697808, 976.0: 0.12672623883021933}</t>
@@ -2266,7 +2266,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022413, 930.0: 0.8573483060191542, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247713, 930.0: 0.857469242257538, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2281,7 +2281,7 @@
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{141.0: 0.9420988600009009, 762.0: 0.05790113999909883}</t>
+    <t>{141.0: 0.9421837681943134, 762.0: 0.057816231805686985}</t>
   </si>
   <si>
     <t>{3.0: 0.598920585727225, 418.0: 0.22843081163410286, 922.0: 0.17264860263867216}</t>
@@ -2293,7 +2293,7 @@
     <t>{930.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.388360061867428, 702.0: 0.611639938132572}</t>
+    <t>{249.0: 0.3883600618674283, 702.0: 0.611639938132572}</t>
   </si>
   <si>
     <t>{934.0: 0.9748517200474496, 5.0: 0.025148279952550416}</t>
@@ -2302,7 +2302,7 @@
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{785.0: 0.5122362869198313, 206.0: 0.48776371308016897}</t>
+    <t>{785.0: 0.49782797567332765, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -2311,7 +2311,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031139, 495.0: 0.035602220613082304}</t>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4397,29 +4397,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>631</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>631</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4430,51 +4430,51 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>632</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4496,40 +4496,40 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>635</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>636</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4595,51 +4595,51 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>637</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>638</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4694,62 +4694,62 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>639</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>642</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4760,7 +4760,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4771,29 +4771,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>620</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>620</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4815,29 +4815,29 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>643</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>643</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4848,84 +4848,84 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>644</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>644</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>645</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>646</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>600</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>600</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4947,29 +4947,29 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>647</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>647</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -5002,62 +5002,62 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>648</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>648</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>649</v>
+        <v>214</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>650</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -5068,51 +5068,51 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>651</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>221</v>
+        <v>653</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -5123,7 +5123,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -5156,7 +5156,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -5943,7 +5943,7 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -5965,7 +5965,7 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -6009,7 +6009,7 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -6020,7 +6020,7 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -6086,7 +6086,7 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -6097,7 +6097,7 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="311" spans="1:3">
@@ -6108,7 +6108,7 @@
         <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="312" spans="1:3">
@@ -6141,7 +6141,7 @@
         <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="315" spans="1:3">
@@ -6163,7 +6163,7 @@
         <v>317</v>
       </c>
       <c r="C316" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="317" spans="1:3">
@@ -6174,7 +6174,7 @@
         <v>318</v>
       </c>
       <c r="C317" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="318" spans="1:3">
@@ -6240,7 +6240,7 @@
         <v>324</v>
       </c>
       <c r="C323" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="324" spans="1:3">
@@ -6262,7 +6262,7 @@
         <v>326</v>
       </c>
       <c r="C325" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="326" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>327</v>
       </c>
       <c r="C326" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="327" spans="1:3">
@@ -6339,7 +6339,7 @@
         <v>333</v>
       </c>
       <c r="C332" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="333" spans="1:3">
@@ -6372,7 +6372,7 @@
         <v>336</v>
       </c>
       <c r="C335" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -6383,7 +6383,7 @@
         <v>337</v>
       </c>
       <c r="C336" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -6405,7 +6405,7 @@
         <v>339</v>
       </c>
       <c r="C338" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -6427,7 +6427,7 @@
         <v>341</v>
       </c>
       <c r="C340" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="341" spans="1:3">
@@ -6460,7 +6460,7 @@
         <v>344</v>
       </c>
       <c r="C343" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="344" spans="1:3">
@@ -6515,7 +6515,7 @@
         <v>349</v>
       </c>
       <c r="C348" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -6526,7 +6526,7 @@
         <v>350</v>
       </c>
       <c r="C349" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -6570,7 +6570,7 @@
         <v>354</v>
       </c>
       <c r="C353" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -6614,7 +6614,7 @@
         <v>358</v>
       </c>
       <c r="C357" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -6625,7 +6625,7 @@
         <v>359</v>
       </c>
       <c r="C358" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -6713,7 +6713,7 @@
         <v>367</v>
       </c>
       <c r="C366" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="367" spans="1:3">
@@ -6724,7 +6724,7 @@
         <v>368</v>
       </c>
       <c r="C367" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="368" spans="1:3">
@@ -6735,7 +6735,7 @@
         <v>369</v>
       </c>
       <c r="C368" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -6746,7 +6746,7 @@
         <v>370</v>
       </c>
       <c r="C369" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="370" spans="1:3">
@@ -6768,7 +6768,7 @@
         <v>372</v>
       </c>
       <c r="C371" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="372" spans="1:3">
@@ -6801,7 +6801,7 @@
         <v>375</v>
       </c>
       <c r="C374" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="375" spans="1:3">
@@ -6900,7 +6900,7 @@
         <v>384</v>
       </c>
       <c r="C383" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="384" spans="1:3">
@@ -6911,7 +6911,7 @@
         <v>385</v>
       </c>
       <c r="C384" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="385" spans="1:3">
@@ -6922,7 +6922,7 @@
         <v>386</v>
       </c>
       <c r="C385" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -7307,7 +7307,7 @@
         <v>421</v>
       </c>
       <c r="C420" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -7461,7 +7461,7 @@
         <v>435</v>
       </c>
       <c r="C434" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="435" spans="1:3">
@@ -7560,7 +7560,7 @@
         <v>444</v>
       </c>
       <c r="C443" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -7626,7 +7626,7 @@
         <v>450</v>
       </c>
       <c r="C449" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -8528,7 +8528,7 @@
         <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="532" spans="1:3">
@@ -8572,7 +8572,7 @@
         <v>536</v>
       </c>
       <c r="C535" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="536" spans="1:3">
@@ -8803,7 +8803,7 @@
         <v>557</v>
       </c>
       <c r="C556" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="557" spans="1:3">
